--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Kdr</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4861288424311</v>
+        <v>49.493922</v>
       </c>
       <c r="H2">
-        <v>48.4861288424311</v>
+        <v>148.481766</v>
       </c>
       <c r="I2">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J2">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N2">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O2">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P2">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q2">
-        <v>6592.01830175893</v>
+        <v>7035.973445152025</v>
       </c>
       <c r="R2">
-        <v>6592.01830175893</v>
+        <v>63323.76100636824</v>
       </c>
       <c r="S2">
-        <v>0.6879242277526261</v>
+        <v>0.6774836402953623</v>
       </c>
       <c r="T2">
-        <v>0.6879242277526261</v>
+        <v>0.6774836402953621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4861288424311</v>
+        <v>49.493922</v>
       </c>
       <c r="H3">
-        <v>48.4861288424311</v>
+        <v>148.481766</v>
       </c>
       <c r="I3">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J3">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N3">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O3">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P3">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q3">
-        <v>8.502174167622611</v>
+        <v>11.271366342878</v>
       </c>
       <c r="R3">
-        <v>8.502174167622611</v>
+        <v>101.442297085902</v>
       </c>
       <c r="S3">
-        <v>0.0008872626456330496</v>
+        <v>0.00108530345667196</v>
       </c>
       <c r="T3">
-        <v>0.0008872626456330496</v>
+        <v>0.00108530345667196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4861288424311</v>
+        <v>49.493922</v>
       </c>
       <c r="H4">
-        <v>48.4861288424311</v>
+        <v>148.481766</v>
       </c>
       <c r="I4">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J4">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N4">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O4">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P4">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q4">
-        <v>197.5899517232371</v>
+        <v>226.504875531396</v>
       </c>
       <c r="R4">
-        <v>197.5899517232371</v>
+        <v>2038.543879782564</v>
       </c>
       <c r="S4">
-        <v>0.02061992378185867</v>
+        <v>0.02180982472658301</v>
       </c>
       <c r="T4">
-        <v>0.02061992378185867</v>
+        <v>0.021809824726583</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4861288424311</v>
+        <v>49.493922</v>
       </c>
       <c r="H5">
-        <v>48.4861288424311</v>
+        <v>148.481766</v>
       </c>
       <c r="I5">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J5">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N5">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O5">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P5">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q5">
-        <v>102.0348263995818</v>
+        <v>125.35581343537</v>
       </c>
       <c r="R5">
-        <v>102.0348263995818</v>
+        <v>1128.20232091833</v>
       </c>
       <c r="S5">
-        <v>0.01064806345214126</v>
+        <v>0.01207032878682869</v>
       </c>
       <c r="T5">
-        <v>0.01064806345214126</v>
+        <v>0.01207032878682869</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.4861288424311</v>
+        <v>49.493922</v>
       </c>
       <c r="H6">
-        <v>48.4861288424311</v>
+        <v>148.481766</v>
       </c>
       <c r="I6">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J6">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N6">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O6">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P6">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q6">
-        <v>4.800175569155361</v>
+        <v>6.573898205858001</v>
       </c>
       <c r="R6">
-        <v>4.800175569155361</v>
+        <v>59.165083852722</v>
       </c>
       <c r="S6">
-        <v>0.0005009326309981752</v>
+        <v>0.0006329910881776499</v>
       </c>
       <c r="T6">
-        <v>0.0005009326309981752</v>
+        <v>0.0006329910881776496</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.8189894391735</v>
+        <v>12.869858</v>
       </c>
       <c r="H7">
-        <v>12.8189894391735</v>
+        <v>38.609574</v>
       </c>
       <c r="I7">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="J7">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N7">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O7">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P7">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q7">
-        <v>1742.828619453241</v>
+        <v>1829.557559226714</v>
       </c>
       <c r="R7">
-        <v>1742.828619453241</v>
+        <v>16466.01803304043</v>
       </c>
       <c r="S7">
-        <v>0.1818766237075886</v>
+        <v>0.1761654339683243</v>
       </c>
       <c r="T7">
-        <v>0.1818766237075886</v>
+        <v>0.1761654339683242</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.8189894391735</v>
+        <v>12.869858</v>
       </c>
       <c r="H8">
-        <v>12.8189894391735</v>
+        <v>38.609574</v>
       </c>
       <c r="I8">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="J8">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N8">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O8">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P8">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q8">
-        <v>2.247844558161333</v>
+        <v>2.930882792008667</v>
       </c>
       <c r="R8">
-        <v>2.247844558161333</v>
+        <v>26.377945128078</v>
       </c>
       <c r="S8">
-        <v>0.0002345786466291318</v>
+        <v>0.0002822104373599101</v>
       </c>
       <c r="T8">
-        <v>0.0002345786466291318</v>
+        <v>0.00028221043735991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.8189894391735</v>
+        <v>12.869858</v>
       </c>
       <c r="H9">
-        <v>12.8189894391735</v>
+        <v>38.609574</v>
       </c>
       <c r="I9">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="J9">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N9">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O9">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P9">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q9">
-        <v>52.23975526399187</v>
+        <v>58.897849808644</v>
       </c>
       <c r="R9">
-        <v>52.23975526399187</v>
+        <v>530.0806482777961</v>
       </c>
       <c r="S9">
-        <v>0.005451591857440508</v>
+        <v>0.005671188216525096</v>
       </c>
       <c r="T9">
-        <v>0.005451591857440508</v>
+        <v>0.005671188216525093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.8189894391735</v>
+        <v>12.869858</v>
       </c>
       <c r="H10">
-        <v>12.8189894391735</v>
+        <v>38.609574</v>
       </c>
       <c r="I10">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="J10">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N10">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O10">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P10">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q10">
-        <v>26.97644446507143</v>
+        <v>32.59615429926333</v>
       </c>
       <c r="R10">
-        <v>26.97644446507143</v>
+        <v>293.36538869337</v>
       </c>
       <c r="S10">
-        <v>0.002815184800259755</v>
+        <v>0.003138636245068588</v>
       </c>
       <c r="T10">
-        <v>0.002815184800259755</v>
+        <v>0.003138636245068586</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.8189894391735</v>
+        <v>12.869858</v>
       </c>
       <c r="H11">
-        <v>12.8189894391735</v>
+        <v>38.609574</v>
       </c>
       <c r="I11">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="J11">
-        <v>0.1905104179230006</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09900100675710451</v>
+        <v>0.1328223333333333</v>
       </c>
       <c r="N11">
-        <v>0.09900100675710451</v>
+        <v>0.398467</v>
       </c>
       <c r="O11">
-        <v>0.0006951793635566143</v>
+        <v>0.0008876833376071904</v>
       </c>
       <c r="P11">
-        <v>0.0006951793635566143</v>
+        <v>0.00088768333760719</v>
       </c>
       <c r="Q11">
-        <v>1.269092860086867</v>
+        <v>1.709404569228667</v>
       </c>
       <c r="R11">
-        <v>1.269092860086867</v>
+        <v>15.384641123058</v>
       </c>
       <c r="S11">
-        <v>0.0001324389110826162</v>
+        <v>0.0001645960774761765</v>
       </c>
       <c r="T11">
-        <v>0.0001324389110826162</v>
+        <v>0.0001645960774761764</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>5.98248508901319</v>
+        <v>0.09074</v>
       </c>
       <c r="H12">
-        <v>5.98248508901319</v>
+        <v>0.27222</v>
       </c>
       <c r="I12">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="J12">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>135.956787211895</v>
+        <v>142.158333</v>
       </c>
       <c r="N12">
-        <v>135.956787211895</v>
+        <v>426.474999</v>
       </c>
       <c r="O12">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241082</v>
       </c>
       <c r="P12">
-        <v>0.9546807239754123</v>
+        <v>0.9500780504241081</v>
       </c>
       <c r="Q12">
-        <v>813.3594522453011</v>
+        <v>12.89944713642</v>
       </c>
       <c r="R12">
-        <v>813.3594522453011</v>
+        <v>116.09502422778</v>
       </c>
       <c r="S12">
-        <v>0.08487987251519764</v>
+        <v>0.001242068986175741</v>
       </c>
       <c r="T12">
-        <v>0.08487987251519764</v>
+        <v>0.00124206898617574</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>5.98248508901319</v>
+        <v>0.09074</v>
       </c>
       <c r="H13">
-        <v>5.98248508901319</v>
+        <v>0.27222</v>
       </c>
       <c r="I13">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="J13">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.175352711602379</v>
+        <v>0.2277323333333333</v>
       </c>
       <c r="N13">
-        <v>0.175352711602379</v>
+        <v>0.6831970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="P13">
-        <v>0.001231316634473725</v>
+        <v>0.00152198950779668</v>
       </c>
       <c r="Q13">
-        <v>1.049044982479263</v>
+        <v>0.02066443192666667</v>
       </c>
       <c r="R13">
-        <v>1.049044982479263</v>
+        <v>0.18597988734</v>
       </c>
       <c r="S13">
-        <v>0.0001094753422115431</v>
+        <v>1.989748067619569E-06</v>
       </c>
       <c r="T13">
-        <v>0.0001094753422115431</v>
+        <v>1.989748067619568E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>5.98248508901319</v>
+        <v>0.09074</v>
       </c>
       <c r="H14">
-        <v>5.98248508901319</v>
+        <v>0.27222</v>
       </c>
       <c r="I14">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="J14">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.07518513934902</v>
+        <v>4.576418</v>
       </c>
       <c r="N14">
-        <v>4.07518513934902</v>
+        <v>13.729254</v>
       </c>
       <c r="O14">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001626</v>
       </c>
       <c r="P14">
-        <v>0.02861571517649969</v>
+        <v>0.03058529317001625</v>
       </c>
       <c r="Q14">
-        <v>24.37973433112365</v>
+        <v>0.41526416932</v>
       </c>
       <c r="R14">
-        <v>24.37973433112365</v>
+        <v>3.737377523880001</v>
       </c>
       <c r="S14">
-        <v>0.002544199537200519</v>
+        <v>3.998518233592688E-05</v>
       </c>
       <c r="T14">
-        <v>0.002544199537200519</v>
+        <v>3.998518233592686E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>5.98248508901319</v>
+        <v>0.09074</v>
       </c>
       <c r="H15">
-        <v>5.98248508901319</v>
+        <v>0.27222</v>
       </c>
       <c r="I15">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="J15">
-        <v>0.08890917181374212</v>
+        <v>0.001307333629717358</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.10441272247516</v>
+        <v>2.532751666666667</v>
       </c>
       <c r="N15">
-        <v>2.10441272247516</v>
+        <v>7.598255</v>
       </c>
       <c r="O15">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="P15">
-        <v>0.0147770648500576</v>
+        <v>0.01692698356047181</v>
       </c>
       <c r="Q15">
-        <v>12.5896177333373</v>
+        <v>0.2298218862333333</v>
       </c>
       <c r="R15">
-        <v>12.5896177333373</v>
+        <v>2.0683969761</v>
       </c>
       <c r="S15">
-        <v>0.00131381659765658</v>
+        <v>2.212921485827767E-05</v>
       </c>
       <c r="T15">
-        <v>0.00131381659765658</v>
+        <v>2.212921485827765E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.09074</v>
+      </c>
+      <c r="H16">
+        <v>0.27222</v>
+      </c>
+      <c r="I16">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="J16">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1328223333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.398467</v>
+      </c>
+      <c r="O16">
+        <v>0.0008876833376071904</v>
+      </c>
+      <c r="P16">
+        <v>0.00088768333760719</v>
+      </c>
+      <c r="Q16">
+        <v>0.01205229852666667</v>
+      </c>
+      <c r="R16">
+        <v>0.10847068674</v>
+      </c>
+      <c r="S16">
+        <v>1.160498279793627E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.160498279793627E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.195726</v>
+      </c>
+      <c r="I17">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J17">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>142.158333</v>
+      </c>
+      <c r="N17">
+        <v>426.474999</v>
+      </c>
+      <c r="O17">
+        <v>0.9500780504241082</v>
+      </c>
+      <c r="P17">
+        <v>0.9500780504241081</v>
+      </c>
+      <c r="Q17">
+        <v>56.660804961586</v>
+      </c>
+      <c r="R17">
+        <v>509.9472446542741</v>
+      </c>
+      <c r="S17">
+        <v>0.005455786424818065</v>
+      </c>
+      <c r="T17">
+        <v>0.005455786424818062</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.195726</v>
+      </c>
+      <c r="I18">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J18">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.2277323333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.6831970000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.00152198950779668</v>
+      </c>
+      <c r="P18">
+        <v>0.00152198950779668</v>
+      </c>
+      <c r="Q18">
+        <v>0.09076849066911112</v>
+      </c>
+      <c r="R18">
+        <v>0.8169164160220002</v>
+      </c>
+      <c r="S18">
+        <v>8.739965828750556E-06</v>
+      </c>
+      <c r="T18">
+        <v>8.739965828750553E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.195726</v>
+      </c>
+      <c r="I19">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J19">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.576418</v>
+      </c>
+      <c r="N19">
+        <v>13.729254</v>
+      </c>
+      <c r="O19">
+        <v>0.03058529317001626</v>
+      </c>
+      <c r="P19">
+        <v>0.03058529317001625</v>
+      </c>
+      <c r="Q19">
+        <v>1.824047329822667</v>
+      </c>
+      <c r="R19">
+        <v>16.416425968404</v>
+      </c>
+      <c r="S19">
+        <v>0.000175634862000619</v>
+      </c>
+      <c r="T19">
+        <v>0.0001756348620006189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.195726</v>
+      </c>
+      <c r="I20">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J20">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.532751666666667</v>
+      </c>
+      <c r="N20">
+        <v>7.598255</v>
+      </c>
+      <c r="O20">
+        <v>0.01692698356047181</v>
+      </c>
+      <c r="P20">
+        <v>0.01692698356047181</v>
+      </c>
+      <c r="Q20">
+        <v>1.009492339792222</v>
+      </c>
+      <c r="R20">
+        <v>9.08543105813</v>
+      </c>
+      <c r="S20">
+        <v>9.720254781290471E-05</v>
+      </c>
+      <c r="T20">
+        <v>9.720254781290465E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.195726</v>
+      </c>
+      <c r="I21">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J21">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1328223333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.398467</v>
+      </c>
+      <c r="O21">
+        <v>0.0008876833376071904</v>
+      </c>
+      <c r="P21">
+        <v>0.00088768333760719</v>
+      </c>
+      <c r="Q21">
+        <v>0.05293970578244445</v>
+      </c>
+      <c r="R21">
+        <v>0.4764573520420001</v>
+      </c>
+      <c r="S21">
+        <v>5.097487201912111E-06</v>
+      </c>
+      <c r="T21">
+        <v>5.097487201912107E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.555354</v>
+      </c>
+      <c r="H22">
+        <v>19.666062</v>
+      </c>
+      <c r="I22">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J22">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>142.158333</v>
+      </c>
+      <c r="N22">
+        <v>426.474999</v>
+      </c>
+      <c r="O22">
+        <v>0.9500780504241082</v>
+      </c>
+      <c r="P22">
+        <v>0.9500780504241081</v>
+      </c>
+      <c r="Q22">
+        <v>931.898196864882</v>
+      </c>
+      <c r="R22">
+        <v>8387.083771783939</v>
+      </c>
+      <c r="S22">
+        <v>0.08973112074942788</v>
+      </c>
+      <c r="T22">
+        <v>0.08973112074942785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.555354</v>
+      </c>
+      <c r="H23">
+        <v>19.666062</v>
+      </c>
+      <c r="I23">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J23">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.2277323333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.6831970000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.00152198950779668</v>
+      </c>
+      <c r="P23">
+        <v>0.00152198950779668</v>
+      </c>
+      <c r="Q23">
+        <v>1.492866062246</v>
+      </c>
+      <c r="R23">
+        <v>13.435794560214</v>
+      </c>
+      <c r="S23">
+        <v>0.0001437458998684396</v>
+      </c>
+      <c r="T23">
+        <v>0.0001437458998684396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>5.98248508901319</v>
-      </c>
-      <c r="H16">
-        <v>5.98248508901319</v>
-      </c>
-      <c r="I16">
-        <v>0.08890917181374212</v>
-      </c>
-      <c r="J16">
-        <v>0.08890917181374212</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.09900100675710451</v>
-      </c>
-      <c r="N16">
-        <v>0.09900100675710451</v>
-      </c>
-      <c r="O16">
-        <v>0.0006951793635566143</v>
-      </c>
-      <c r="P16">
-        <v>0.0006951793635566143</v>
-      </c>
-      <c r="Q16">
-        <v>0.5922720467216718</v>
-      </c>
-      <c r="R16">
-        <v>0.5922720467216718</v>
-      </c>
-      <c r="S16">
-        <v>6.180782147582291E-05</v>
-      </c>
-      <c r="T16">
-        <v>6.180782147582291E-05</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.555354</v>
+      </c>
+      <c r="H24">
+        <v>19.666062</v>
+      </c>
+      <c r="I24">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J24">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.576418</v>
+      </c>
+      <c r="N24">
+        <v>13.729254</v>
+      </c>
+      <c r="O24">
+        <v>0.03058529317001626</v>
+      </c>
+      <c r="P24">
+        <v>0.03058529317001625</v>
+      </c>
+      <c r="Q24">
+        <v>30.000040041972</v>
+      </c>
+      <c r="R24">
+        <v>270.000360377748</v>
+      </c>
+      <c r="S24">
+        <v>0.002888660182571607</v>
+      </c>
+      <c r="T24">
+        <v>0.002888660182571605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.555354</v>
+      </c>
+      <c r="H25">
+        <v>19.666062</v>
+      </c>
+      <c r="I25">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J25">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.532751666666667</v>
+      </c>
+      <c r="N25">
+        <v>7.598255</v>
+      </c>
+      <c r="O25">
+        <v>0.01692698356047181</v>
+      </c>
+      <c r="P25">
+        <v>0.01692698356047181</v>
+      </c>
+      <c r="Q25">
+        <v>16.60308376909</v>
+      </c>
+      <c r="R25">
+        <v>149.42775392181</v>
+      </c>
+      <c r="S25">
+        <v>0.001598686765903349</v>
+      </c>
+      <c r="T25">
+        <v>0.001598686765903349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.555354</v>
+      </c>
+      <c r="H26">
+        <v>19.666062</v>
+      </c>
+      <c r="I26">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J26">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1328223333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.398467</v>
+      </c>
+      <c r="O26">
+        <v>0.0008876833376071904</v>
+      </c>
+      <c r="P26">
+        <v>0.00088768333760719</v>
+      </c>
+      <c r="Q26">
+        <v>0.8706974141060001</v>
+      </c>
+      <c r="R26">
+        <v>7.836276726954001</v>
+      </c>
+      <c r="S26">
+        <v>8.38381864716583E-05</v>
+      </c>
+      <c r="T26">
+        <v>8.383818647165824E-05</v>
       </c>
     </row>
   </sheetData>
